--- a/main_program/result/naver_news/bert_result/윤석열+국정수행_naver_20220724_20220730.xlsx
+++ b/main_program/result/naver_news/bert_result/윤석열+국정수행_naver_20220724_20220730.xlsx
@@ -504,7 +504,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -584,7 +584,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
